--- a/data/pca/factorExposure/factorExposure_2011-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.009509917575766023</v>
+        <v>0.01434613194470176</v>
       </c>
       <c r="C2">
-        <v>0.003182787315939742</v>
+        <v>0.008451607608127175</v>
       </c>
       <c r="D2">
-        <v>-0.01164696506753729</v>
+        <v>-0.003512714188539372</v>
       </c>
       <c r="E2">
-        <v>-0.0192766406558758</v>
+        <v>0.01209201955385063</v>
       </c>
       <c r="F2">
-        <v>-0.0137545796109008</v>
+        <v>0.003118239936489995</v>
       </c>
       <c r="G2">
-        <v>0.01916123542526269</v>
+        <v>-0.02415680580570169</v>
       </c>
       <c r="H2">
-        <v>0.03648375231861913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.009519452525338324</v>
+      </c>
+      <c r="I2">
+        <v>0.003378299914020976</v>
+      </c>
+      <c r="J2">
+        <v>0.01652516581399418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1080666651915862</v>
+        <v>0.1215859320498629</v>
       </c>
       <c r="C4">
-        <v>-0.0195887704199312</v>
+        <v>0.05355924827945801</v>
       </c>
       <c r="D4">
-        <v>-0.0816039916222097</v>
+        <v>-0.01020451358768113</v>
       </c>
       <c r="E4">
-        <v>-0.03128270452640734</v>
+        <v>0.002807927816890924</v>
       </c>
       <c r="F4">
-        <v>-0.02743407019173379</v>
+        <v>0.007044234656538272</v>
       </c>
       <c r="G4">
-        <v>0.02360354657772516</v>
+        <v>-0.003905302960947645</v>
       </c>
       <c r="H4">
-        <v>-0.02692757705981901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.06061615853876619</v>
+      </c>
+      <c r="I4">
+        <v>-0.1369448266955868</v>
+      </c>
+      <c r="J4">
+        <v>0.02246464335144503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.12793657463188</v>
+        <v>0.1214468461124757</v>
       </c>
       <c r="C6">
-        <v>-0.02937108046873433</v>
+        <v>-0.0004705209403465852</v>
       </c>
       <c r="D6">
-        <v>0.0229796147194393</v>
+        <v>-0.01418672087199453</v>
       </c>
       <c r="E6">
-        <v>-0.02984781646195639</v>
+        <v>0.01244287826688612</v>
       </c>
       <c r="F6">
-        <v>0.2520235745428071</v>
+        <v>0.02504724982160268</v>
       </c>
       <c r="G6">
-        <v>-0.09732644667636897</v>
+        <v>0.03872501619314361</v>
       </c>
       <c r="H6">
-        <v>-0.2843569854048462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.02854731454589848</v>
+      </c>
+      <c r="I6">
+        <v>-0.02226694482617036</v>
+      </c>
+      <c r="J6">
+        <v>-0.1850126683848156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08957163903532299</v>
+        <v>0.07962526020101833</v>
       </c>
       <c r="C7">
-        <v>-0.03457030463941125</v>
+        <v>0.05025354699902383</v>
       </c>
       <c r="D7">
-        <v>-0.03214338072293108</v>
+        <v>-0.04036765920237147</v>
       </c>
       <c r="E7">
-        <v>-0.04991528984443688</v>
+        <v>0.04870782272145765</v>
       </c>
       <c r="F7">
-        <v>0.00698657565338621</v>
+        <v>0.007722601537897243</v>
       </c>
       <c r="G7">
-        <v>-0.001344130762542655</v>
+        <v>-0.03910297175020829</v>
       </c>
       <c r="H7">
-        <v>-0.003397271973372432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.03213807160445267</v>
+      </c>
+      <c r="I7">
+        <v>-0.04373999522571761</v>
+      </c>
+      <c r="J7">
+        <v>0.04725089653266713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04229824328187374</v>
+        <v>0.05053069172535456</v>
       </c>
       <c r="C8">
-        <v>0.03360564831433735</v>
+        <v>0.004657305406761588</v>
       </c>
       <c r="D8">
-        <v>-0.1226092514419558</v>
+        <v>-0.006177196866327474</v>
       </c>
       <c r="E8">
-        <v>-0.07635392887660518</v>
+        <v>0.0187199968727503</v>
       </c>
       <c r="F8">
-        <v>-0.008946727651188801</v>
+        <v>-0.006347697790752864</v>
       </c>
       <c r="G8">
-        <v>0.1351614911223064</v>
+        <v>0.0004415901437183363</v>
       </c>
       <c r="H8">
-        <v>-0.05924181493629217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.07079704650465549</v>
+      </c>
+      <c r="I8">
+        <v>-0.1033182694802645</v>
+      </c>
+      <c r="J8">
+        <v>-0.02811935156758693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09451481720454433</v>
+        <v>0.09465895731459331</v>
       </c>
       <c r="C9">
-        <v>-0.03634627218032918</v>
+        <v>0.05504863005689253</v>
       </c>
       <c r="D9">
-        <v>-0.06766752897615597</v>
+        <v>0.005357470689935684</v>
       </c>
       <c r="E9">
-        <v>-0.03301507877267108</v>
+        <v>0.01443448096311483</v>
       </c>
       <c r="F9">
-        <v>-0.01568538904657417</v>
+        <v>-0.003638172403860206</v>
       </c>
       <c r="G9">
-        <v>0.06691513550056102</v>
+        <v>-0.01910244689649199</v>
       </c>
       <c r="H9">
-        <v>-0.04466104754356347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.07318416640779113</v>
+      </c>
+      <c r="I9">
+        <v>-0.1117195611814129</v>
+      </c>
+      <c r="J9">
+        <v>0.00532063001889356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.03707954396317777</v>
+        <v>0.0736545175441026</v>
       </c>
       <c r="C10">
-        <v>0.1748892585072286</v>
+        <v>-0.1807419999523583</v>
       </c>
       <c r="D10">
-        <v>-0.03750049765339772</v>
+        <v>0.01248299892706541</v>
       </c>
       <c r="E10">
-        <v>-0.09731615228367632</v>
+        <v>-0.003150915927790124</v>
       </c>
       <c r="F10">
-        <v>0.0213239559292929</v>
+        <v>0.01678278386898832</v>
       </c>
       <c r="G10">
-        <v>-0.01370811964747986</v>
+        <v>-0.06684173628725443</v>
       </c>
       <c r="H10">
-        <v>-0.02486158545499806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.0004604468586208214</v>
+      </c>
+      <c r="I10">
+        <v>-0.01276574889154275</v>
+      </c>
+      <c r="J10">
+        <v>0.03280721243307295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07585945606468468</v>
+        <v>0.083621230619259</v>
       </c>
       <c r="C11">
-        <v>-0.05609413310674327</v>
+        <v>0.05445554874464376</v>
       </c>
       <c r="D11">
-        <v>0.01079722789093751</v>
+        <v>-0.02470100119904796</v>
       </c>
       <c r="E11">
-        <v>-0.02614472086530348</v>
+        <v>0.03397069478115922</v>
       </c>
       <c r="F11">
-        <v>-0.03586593829552333</v>
+        <v>-0.0432699142770002</v>
       </c>
       <c r="G11">
-        <v>0.154351844776049</v>
+        <v>0.00212015895449101</v>
       </c>
       <c r="H11">
-        <v>0.04575480133434846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.0786450195086601</v>
+      </c>
+      <c r="I11">
+        <v>-0.09748049253811947</v>
+      </c>
+      <c r="J11">
+        <v>0.006231819101500888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0738845472630561</v>
+        <v>0.08760565353091651</v>
       </c>
       <c r="C12">
-        <v>-0.04109217027148224</v>
+        <v>0.0646045573658017</v>
       </c>
       <c r="D12">
-        <v>-0.03328129456523993</v>
+        <v>-0.02702053638538088</v>
       </c>
       <c r="E12">
-        <v>-0.006648947909798431</v>
+        <v>0.03690844749351017</v>
       </c>
       <c r="F12">
-        <v>0.009864347839488969</v>
+        <v>-0.05996481230838256</v>
       </c>
       <c r="G12">
-        <v>0.149042852232464</v>
+        <v>-0.01364403390984302</v>
       </c>
       <c r="H12">
-        <v>0.04463664361237337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.08660747196238999</v>
+      </c>
+      <c r="I12">
+        <v>-0.07507686297479341</v>
+      </c>
+      <c r="J12">
+        <v>-0.02243156951747237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06261549974693248</v>
+        <v>0.04807324104068846</v>
       </c>
       <c r="C13">
-        <v>-0.00636185279599397</v>
+        <v>0.02579339901615693</v>
       </c>
       <c r="D13">
-        <v>-0.03046165573603684</v>
+        <v>0.02772220900510631</v>
       </c>
       <c r="E13">
-        <v>-0.004183577286769059</v>
+        <v>0.01304889548300154</v>
       </c>
       <c r="F13">
-        <v>-0.04600786004391274</v>
+        <v>0.01757557299269207</v>
       </c>
       <c r="G13">
-        <v>0.06716718968525139</v>
+        <v>-0.00773638208235723</v>
       </c>
       <c r="H13">
-        <v>-0.01578663578790616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.07064559170829557</v>
+      </c>
+      <c r="I13">
+        <v>-0.0588733029878729</v>
+      </c>
+      <c r="J13">
+        <v>-0.03310931053417522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0533719027078862</v>
+        <v>0.03489005600994827</v>
       </c>
       <c r="C14">
-        <v>-0.006018744591306092</v>
+        <v>0.006310487449873871</v>
       </c>
       <c r="D14">
-        <v>-0.05137348365436364</v>
+        <v>-0.008875647750937821</v>
       </c>
       <c r="E14">
-        <v>-0.04252977937584604</v>
+        <v>0.002833891760513378</v>
       </c>
       <c r="F14">
-        <v>-0.02007644608069328</v>
+        <v>-0.01398861998125654</v>
       </c>
       <c r="G14">
-        <v>0.0207155178963122</v>
+        <v>-0.007207566147290007</v>
       </c>
       <c r="H14">
-        <v>-0.1287517229544574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.04844032085459647</v>
+      </c>
+      <c r="I14">
+        <v>-0.07935087694961597</v>
+      </c>
+      <c r="J14">
+        <v>0.06822146668213397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.03761735908346173</v>
+        <v>0.02821792618158091</v>
       </c>
       <c r="C15">
-        <v>0.01115672820451661</v>
+        <v>0.01074156483003893</v>
       </c>
       <c r="D15">
-        <v>-0.009351084183690173</v>
+        <v>0.01157062259682589</v>
       </c>
       <c r="E15">
-        <v>-0.01528740163209857</v>
+        <v>0.01569277078955093</v>
       </c>
       <c r="F15">
-        <v>0.00113138985467074</v>
+        <v>0.03263286483611189</v>
       </c>
       <c r="G15">
-        <v>0.005291633635875381</v>
+        <v>-0.006657694549366286</v>
       </c>
       <c r="H15">
-        <v>-0.06652055068376431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.03616113954290819</v>
+      </c>
+      <c r="I15">
+        <v>-0.0213174997799083</v>
+      </c>
+      <c r="J15">
+        <v>0.02349214602812066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08238578207134566</v>
+        <v>0.09004053790593049</v>
       </c>
       <c r="C16">
-        <v>-0.06795087013859727</v>
+        <v>0.06023404638116079</v>
       </c>
       <c r="D16">
-        <v>-0.04048649080596075</v>
+        <v>-0.03839527972544707</v>
       </c>
       <c r="E16">
-        <v>-0.007786970573081579</v>
+        <v>0.04654429639974259</v>
       </c>
       <c r="F16">
-        <v>-0.04620900426229341</v>
+        <v>-0.04425711488172857</v>
       </c>
       <c r="G16">
-        <v>0.114509634949052</v>
+        <v>-0.001763044683818725</v>
       </c>
       <c r="H16">
-        <v>0.04933923874100592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09898450798451236</v>
+      </c>
+      <c r="I16">
+        <v>-0.085572163954465</v>
+      </c>
+      <c r="J16">
+        <v>0.01342809954904416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05613116995927838</v>
+        <v>0.05256031028730286</v>
       </c>
       <c r="C20">
-        <v>-0.01816915146537375</v>
+        <v>0.02553512128858196</v>
       </c>
       <c r="D20">
-        <v>-0.02201728721285988</v>
+        <v>-0.03253865388868266</v>
       </c>
       <c r="E20">
-        <v>-0.01565875358772021</v>
+        <v>0.0053603805766363</v>
       </c>
       <c r="F20">
-        <v>-0.003687112719448282</v>
+        <v>0.01095592709781582</v>
       </c>
       <c r="G20">
-        <v>0.1074104108861557</v>
+        <v>-0.002849512076896702</v>
       </c>
       <c r="H20">
-        <v>0.0003579268117566613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.04227674887584733</v>
+      </c>
+      <c r="I20">
+        <v>-0.05258181908555763</v>
+      </c>
+      <c r="J20">
+        <v>0.03236011190985661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02562192376467405</v>
+        <v>0.02300477036311559</v>
       </c>
       <c r="C21">
-        <v>-0.03355748280558471</v>
+        <v>0.005127464443796621</v>
       </c>
       <c r="D21">
-        <v>0.0005976219389708445</v>
+        <v>-0.01074499026373978</v>
       </c>
       <c r="E21">
-        <v>-0.02214778347006886</v>
+        <v>-0.03329111619225498</v>
       </c>
       <c r="F21">
-        <v>0.05940160070075103</v>
+        <v>0.005562949752268607</v>
       </c>
       <c r="G21">
-        <v>-0.09297868029598773</v>
+        <v>0.02680123435034394</v>
       </c>
       <c r="H21">
-        <v>-0.09378852798516266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.03628401680571363</v>
+      </c>
+      <c r="I21">
+        <v>-0.0831557787282233</v>
+      </c>
+      <c r="J21">
+        <v>-0.005844706370119233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.04009541646692264</v>
+        <v>0.03390968327990027</v>
       </c>
       <c r="C22">
-        <v>-0.01292295849657809</v>
+        <v>-0.007639436716999876</v>
       </c>
       <c r="D22">
-        <v>-0.5216119658019174</v>
+        <v>-0.008052029691748874</v>
       </c>
       <c r="E22">
-        <v>0.2400908613795786</v>
+        <v>0.1367438069787974</v>
       </c>
       <c r="F22">
-        <v>-0.05552449432166758</v>
+        <v>0.6185236173218903</v>
       </c>
       <c r="G22">
-        <v>-0.3199005551934085</v>
+        <v>-0.0662936038382185</v>
       </c>
       <c r="H22">
-        <v>0.07831512830701073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1873479464262417</v>
+      </c>
+      <c r="I22">
+        <v>0.1302901219177275</v>
+      </c>
+      <c r="J22">
+        <v>-0.01178394274907284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04040878716946335</v>
+        <v>0.03408789456699859</v>
       </c>
       <c r="C23">
-        <v>-0.01383805249952367</v>
+        <v>-0.007337384813141454</v>
       </c>
       <c r="D23">
-        <v>-0.5208451902866643</v>
+        <v>-0.008503068216082644</v>
       </c>
       <c r="E23">
-        <v>0.2377101638686435</v>
+        <v>0.1384813905618873</v>
       </c>
       <c r="F23">
-        <v>-0.0561623186076893</v>
+        <v>0.6203260148413292</v>
       </c>
       <c r="G23">
-        <v>-0.3214054989433449</v>
+        <v>-0.06602678879971384</v>
       </c>
       <c r="H23">
-        <v>0.07779309042755515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1887597924412258</v>
+      </c>
+      <c r="I23">
+        <v>0.1272902468440647</v>
+      </c>
+      <c r="J23">
+        <v>-0.01143634498997575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08535479336939697</v>
+        <v>0.09443089529161799</v>
       </c>
       <c r="C24">
-        <v>-0.04607298314570966</v>
+        <v>0.05878995320431844</v>
       </c>
       <c r="D24">
-        <v>-0.03401766608857212</v>
+        <v>-0.03423437273050332</v>
       </c>
       <c r="E24">
-        <v>-0.02841868645105124</v>
+        <v>0.03258301144622931</v>
       </c>
       <c r="F24">
-        <v>-0.01188038077075458</v>
+        <v>-0.04264405475643075</v>
       </c>
       <c r="G24">
-        <v>0.1223229734314342</v>
+        <v>-0.01814969802453992</v>
       </c>
       <c r="H24">
-        <v>0.0233909296781202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.09913098736209752</v>
+      </c>
+      <c r="I24">
+        <v>-0.07685381539669024</v>
+      </c>
+      <c r="J24">
+        <v>0.00380581093097961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07733808036709035</v>
+        <v>0.09343464066629494</v>
       </c>
       <c r="C25">
-        <v>-0.02298958403540503</v>
+        <v>0.0391255137391512</v>
       </c>
       <c r="D25">
-        <v>-0.03407807820487853</v>
+        <v>-0.02557860262636307</v>
       </c>
       <c r="E25">
-        <v>-0.01818690971938323</v>
+        <v>0.03494517834461058</v>
       </c>
       <c r="F25">
-        <v>0.01221317189175032</v>
+        <v>-0.06780050788637397</v>
       </c>
       <c r="G25">
-        <v>0.1258973959807137</v>
+        <v>-0.01544732608481308</v>
       </c>
       <c r="H25">
-        <v>0.02695766692152422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.0967732163460512</v>
+      </c>
+      <c r="I25">
+        <v>-0.07730792252703941</v>
+      </c>
+      <c r="J25">
+        <v>0.01821789280212785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.05211373538893061</v>
+        <v>0.04193510215622366</v>
       </c>
       <c r="C26">
-        <v>-0.02220268775147331</v>
+        <v>-0.00989160806583223</v>
       </c>
       <c r="D26">
-        <v>-0.02871268386599812</v>
+        <v>-0.02245182163531572</v>
       </c>
       <c r="E26">
-        <v>-0.04450060822651604</v>
+        <v>0.001926390203156606</v>
       </c>
       <c r="F26">
-        <v>-0.0420230395667957</v>
+        <v>0.004491318663634209</v>
       </c>
       <c r="G26">
-        <v>0.0514059247743023</v>
+        <v>0.01851338153689062</v>
       </c>
       <c r="H26">
-        <v>-0.0594311669194168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.06169662492096158</v>
+      </c>
+      <c r="I26">
+        <v>-0.03412282259376331</v>
+      </c>
+      <c r="J26">
+        <v>0.05623996834668767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06020384263046634</v>
+        <v>0.08080800147384304</v>
       </c>
       <c r="C28">
-        <v>0.3073073940064939</v>
+        <v>-0.3055496176088842</v>
       </c>
       <c r="D28">
-        <v>0.01199273986885254</v>
+        <v>0.09315692810600526</v>
       </c>
       <c r="E28">
-        <v>-0.02681017683722181</v>
+        <v>0.0155761549486271</v>
       </c>
       <c r="F28">
-        <v>0.03314814268981497</v>
+        <v>-0.02858393937910379</v>
       </c>
       <c r="G28">
-        <v>-0.01803772462893481</v>
+        <v>-0.004338951691891758</v>
       </c>
       <c r="H28">
-        <v>0.07218659373371851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.03987653588505711</v>
+      </c>
+      <c r="I28">
+        <v>-0.03609992709143717</v>
+      </c>
+      <c r="J28">
+        <v>-0.004058400744668065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.06009087205939007</v>
+        <v>0.03598480152911138</v>
       </c>
       <c r="C29">
-        <v>0.0006786235031913026</v>
+        <v>0.00746914818100626</v>
       </c>
       <c r="D29">
-        <v>-0.05793037371676833</v>
+        <v>0.005086060473573954</v>
       </c>
       <c r="E29">
-        <v>-0.01927784299190277</v>
+        <v>0.01030034126074523</v>
       </c>
       <c r="F29">
-        <v>-0.02733303827053911</v>
+        <v>-0.01972256820360838</v>
       </c>
       <c r="G29">
-        <v>0.0304570683234889</v>
+        <v>-0.02624125397016957</v>
       </c>
       <c r="H29">
-        <v>-0.07615985338341823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.08286664358287889</v>
+      </c>
+      <c r="I29">
+        <v>-0.06844524412765514</v>
+      </c>
+      <c r="J29">
+        <v>0.0572150620627962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1148439718150031</v>
+        <v>0.1180184363418926</v>
       </c>
       <c r="C30">
-        <v>0.02977499231582121</v>
+        <v>0.06223562811679795</v>
       </c>
       <c r="D30">
-        <v>-0.2029316309445725</v>
+        <v>0.0152205654567916</v>
       </c>
       <c r="E30">
-        <v>-0.001868126868197676</v>
+        <v>0.04217832843110231</v>
       </c>
       <c r="F30">
-        <v>0.106371136105783</v>
+        <v>-0.02553003241697582</v>
       </c>
       <c r="G30">
-        <v>0.1717025442847236</v>
+        <v>0.03092311258963104</v>
       </c>
       <c r="H30">
-        <v>-0.007398574297980752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.155171980442622</v>
+      </c>
+      <c r="I30">
+        <v>-0.074342729592107</v>
+      </c>
+      <c r="J30">
+        <v>-0.2773805246907933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05667755177452848</v>
+        <v>0.03644737764769913</v>
       </c>
       <c r="C31">
-        <v>-0.02284357193987982</v>
+        <v>0.02430925992069346</v>
       </c>
       <c r="D31">
-        <v>-0.006747204399748722</v>
+        <v>-0.02232599608467711</v>
       </c>
       <c r="E31">
-        <v>0.0180976611946497</v>
+        <v>0.02319366566613509</v>
       </c>
       <c r="F31">
-        <v>-0.02544441047720622</v>
+        <v>0.00100707572415996</v>
       </c>
       <c r="G31">
-        <v>0.01208104751355199</v>
+        <v>-0.003023733669557718</v>
       </c>
       <c r="H31">
-        <v>-0.02609807824471743</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.01302225311110646</v>
+      </c>
+      <c r="I31">
+        <v>-0.04039308139333709</v>
+      </c>
+      <c r="J31">
+        <v>0.06554104198902029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03425850150604852</v>
+        <v>0.05553895317888182</v>
       </c>
       <c r="C32">
-        <v>0.01128490973717916</v>
+        <v>0.00488423137018821</v>
       </c>
       <c r="D32">
-        <v>-0.09976152667643601</v>
+        <v>-0.02037345084785087</v>
       </c>
       <c r="E32">
-        <v>0.04692048923704269</v>
+        <v>0.001316088463482221</v>
       </c>
       <c r="F32">
-        <v>-0.1075810793358461</v>
+        <v>-0.05264766676684968</v>
       </c>
       <c r="G32">
-        <v>0.0217129812505855</v>
+        <v>0.04088600756295817</v>
       </c>
       <c r="H32">
-        <v>-0.03190318992548168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.05426644080670169</v>
+      </c>
+      <c r="I32">
+        <v>-0.03539372350295261</v>
+      </c>
+      <c r="J32">
+        <v>-0.01034266023323634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.1135472916984261</v>
+        <v>0.1066905419554126</v>
       </c>
       <c r="C33">
-        <v>-0.01462633522663514</v>
+        <v>0.05700163406219168</v>
       </c>
       <c r="D33">
-        <v>-0.01916607100971379</v>
+        <v>0.0002219235712293968</v>
       </c>
       <c r="E33">
-        <v>0.03239604536076695</v>
+        <v>0.07733434978705324</v>
       </c>
       <c r="F33">
-        <v>-0.01684466109385387</v>
+        <v>-0.04163686465542496</v>
       </c>
       <c r="G33">
-        <v>0.07359021352754722</v>
+        <v>-0.0015041206558926</v>
       </c>
       <c r="H33">
-        <v>-0.06475489366297803</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.07379447995498176</v>
+      </c>
+      <c r="I33">
+        <v>-0.05163600521029553</v>
+      </c>
+      <c r="J33">
+        <v>0.01734071118522097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06889853843405309</v>
+        <v>0.08284945862447217</v>
       </c>
       <c r="C34">
-        <v>-0.04281729385970048</v>
+        <v>0.04851920549900858</v>
       </c>
       <c r="D34">
-        <v>-0.01538431000612423</v>
+        <v>-0.031567344317931</v>
       </c>
       <c r="E34">
-        <v>0.0004452942471975542</v>
+        <v>0.03689589838059202</v>
       </c>
       <c r="F34">
-        <v>-0.02928622900567968</v>
+        <v>-0.04661497886277958</v>
       </c>
       <c r="G34">
-        <v>0.09817792531589023</v>
+        <v>-0.01063861047381589</v>
       </c>
       <c r="H34">
-        <v>0.01629446048606954</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1097169769612638</v>
+      </c>
+      <c r="I34">
+        <v>-0.06580337657268867</v>
+      </c>
+      <c r="J34">
+        <v>0.01106385766857047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04300999924631285</v>
+        <v>0.02138766482249229</v>
       </c>
       <c r="C35">
-        <v>-0.008258948851548547</v>
+        <v>0.01244700913547301</v>
       </c>
       <c r="D35">
-        <v>0.01107073882474678</v>
+        <v>0.006647997878777026</v>
       </c>
       <c r="E35">
-        <v>0.00818865793647738</v>
+        <v>0.008754955993429486</v>
       </c>
       <c r="F35">
-        <v>0.04164474626525707</v>
+        <v>-0.01253009692320523</v>
       </c>
       <c r="G35">
-        <v>0.04601569460004953</v>
+        <v>-0.007111536974572504</v>
       </c>
       <c r="H35">
-        <v>0.02436048165134172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05260287756560688</v>
+      </c>
+      <c r="I35">
+        <v>-0.03678213157764372</v>
+      </c>
+      <c r="J35">
+        <v>0.04744469057773764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03916524420471306</v>
+        <v>0.02838616073338388</v>
       </c>
       <c r="C36">
-        <v>-0.001969638269232346</v>
+        <v>0.008118065836575291</v>
       </c>
       <c r="D36">
-        <v>-0.03549703475983422</v>
+        <v>0.005845482960808273</v>
       </c>
       <c r="E36">
-        <v>-0.01279968485747906</v>
+        <v>0.003085193452879945</v>
       </c>
       <c r="F36">
-        <v>0.008255632411207485</v>
+        <v>0.009986926897637765</v>
       </c>
       <c r="G36">
-        <v>0.05850972480152735</v>
+        <v>0.01284322220663132</v>
       </c>
       <c r="H36">
-        <v>-0.04255719910028679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.03807987006836973</v>
+      </c>
+      <c r="I36">
+        <v>-0.04357077724703818</v>
+      </c>
+      <c r="J36">
+        <v>0.01782733597440414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05441204791850731</v>
+        <v>0.0185086748766748</v>
       </c>
       <c r="C38">
-        <v>-0.01538960422142709</v>
+        <v>0.01030300532047936</v>
       </c>
       <c r="D38">
-        <v>-0.01819671501772195</v>
+        <v>-0.009340502638943383</v>
       </c>
       <c r="E38">
-        <v>-0.007878410286077549</v>
+        <v>0.01414346749400525</v>
       </c>
       <c r="F38">
-        <v>-0.03166981124189829</v>
+        <v>0.01961967060592299</v>
       </c>
       <c r="G38">
-        <v>0.05911827153984748</v>
+        <v>-0.01582868273425273</v>
       </c>
       <c r="H38">
-        <v>0.009733097226849468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01141664242543907</v>
+      </c>
+      <c r="I38">
+        <v>0.03635634181538827</v>
+      </c>
+      <c r="J38">
+        <v>0.008188396128908716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1069318407336839</v>
+        <v>0.1378510622804662</v>
       </c>
       <c r="C39">
-        <v>-0.03984061797089007</v>
+        <v>0.09058813405130979</v>
       </c>
       <c r="D39">
-        <v>-0.07200806788015363</v>
+        <v>-0.02225586350275967</v>
       </c>
       <c r="E39">
-        <v>-0.004421735663636122</v>
+        <v>0.0535259940569968</v>
       </c>
       <c r="F39">
-        <v>-0.02520087093470282</v>
+        <v>-0.132345205602498</v>
       </c>
       <c r="G39">
-        <v>0.1415679722073551</v>
+        <v>-0.02064308284105526</v>
       </c>
       <c r="H39">
-        <v>0.1003035781915291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1499383255379364</v>
+      </c>
+      <c r="I39">
+        <v>-0.0549591639229726</v>
+      </c>
+      <c r="J39">
+        <v>0.03622502940772001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04752840836732541</v>
+        <v>0.01734668493787484</v>
       </c>
       <c r="C40">
-        <v>-0.02257581609261738</v>
+        <v>0.01799982377338407</v>
       </c>
       <c r="D40">
-        <v>-0.07475616870192672</v>
+        <v>-0.01536015567589259</v>
       </c>
       <c r="E40">
-        <v>0.04049105347424571</v>
+        <v>-0.0007873448338093214</v>
       </c>
       <c r="F40">
-        <v>0.02532891605372448</v>
+        <v>0.05953641190470246</v>
       </c>
       <c r="G40">
-        <v>0.2816577862514026</v>
+        <v>-0.0002299444614228216</v>
       </c>
       <c r="H40">
-        <v>0.09069579154693153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07346277386205971</v>
+      </c>
+      <c r="I40">
+        <v>-0.07814240166841356</v>
+      </c>
+      <c r="J40">
+        <v>-0.04504195659504405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.04880129208265137</v>
+        <v>0.02714843441127355</v>
       </c>
       <c r="C41">
-        <v>-0.0289506643764232</v>
+        <v>-0.004269736514283273</v>
       </c>
       <c r="D41">
-        <v>0.01253121238661453</v>
+        <v>-0.03133508596607116</v>
       </c>
       <c r="E41">
-        <v>-0.009740178404963181</v>
+        <v>0.007894919120874963</v>
       </c>
       <c r="F41">
-        <v>-0.04009155352293425</v>
+        <v>-0.01454167331821691</v>
       </c>
       <c r="G41">
-        <v>0.05421171493319357</v>
+        <v>-0.00904773671877755</v>
       </c>
       <c r="H41">
-        <v>0.01218391759369561</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.01647422341311185</v>
+      </c>
+      <c r="I41">
+        <v>-0.02114474409147649</v>
+      </c>
+      <c r="J41">
+        <v>0.03576045171970377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07388391103730871</v>
+        <v>0.04088046916066129</v>
       </c>
       <c r="C43">
-        <v>-0.02302814363601817</v>
+        <v>0.002084920432228828</v>
       </c>
       <c r="D43">
-        <v>-0.02658229349091317</v>
+        <v>-0.03982248424810401</v>
       </c>
       <c r="E43">
-        <v>-0.009034079015076255</v>
+        <v>0.03800038559799835</v>
       </c>
       <c r="F43">
-        <v>-0.03953353613851245</v>
+        <v>-0.0002340611731585438</v>
       </c>
       <c r="G43">
-        <v>0.008238948870864427</v>
+        <v>-0.002077886963757237</v>
       </c>
       <c r="H43">
-        <v>0.006687863861334947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01649064711651281</v>
+      </c>
+      <c r="I43">
+        <v>-0.02544244864234414</v>
+      </c>
+      <c r="J43">
+        <v>0.05934931417108846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.07978604254632664</v>
+        <v>0.124441758715493</v>
       </c>
       <c r="C44">
-        <v>-0.008522867525658376</v>
+        <v>0.08105446907009559</v>
       </c>
       <c r="D44">
-        <v>-0.08259993192876361</v>
+        <v>0.007690040449373561</v>
       </c>
       <c r="E44">
-        <v>-0.08948783776978818</v>
+        <v>0.04138300935994081</v>
       </c>
       <c r="F44">
-        <v>-0.069201069851531</v>
+        <v>0.06089830884568561</v>
       </c>
       <c r="G44">
-        <v>0.08681213182110215</v>
+        <v>-0.08612321556390191</v>
       </c>
       <c r="H44">
-        <v>-0.01025965114968407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.1982887296880153</v>
+      </c>
+      <c r="I44">
+        <v>-0.100073051772059</v>
+      </c>
+      <c r="J44">
+        <v>-0.1767230294763142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05389318399831369</v>
+        <v>0.02459785826292551</v>
       </c>
       <c r="C46">
-        <v>-0.03722293610568215</v>
+        <v>-0.003050096643265479</v>
       </c>
       <c r="D46">
-        <v>-0.0534766581557069</v>
+        <v>-0.02471396712943157</v>
       </c>
       <c r="E46">
-        <v>0.007168547879128379</v>
+        <v>0.0349139117186771</v>
       </c>
       <c r="F46">
-        <v>-0.0186761666573908</v>
+        <v>0.02798585005081388</v>
       </c>
       <c r="G46">
-        <v>0.01467046922394482</v>
+        <v>-0.01960403563138931</v>
       </c>
       <c r="H46">
-        <v>-0.06876303036616992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05414912891031563</v>
+      </c>
+      <c r="I46">
+        <v>-0.04271074455316756</v>
+      </c>
+      <c r="J46">
+        <v>0.06578715229426289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05077026346346072</v>
+        <v>0.04282922886465179</v>
       </c>
       <c r="C47">
-        <v>-0.001075342425224215</v>
+        <v>-0.00257170613157432</v>
       </c>
       <c r="D47">
-        <v>-0.06519998314178897</v>
+        <v>-0.0127230750475243</v>
       </c>
       <c r="E47">
-        <v>0.03059468735303731</v>
+        <v>0.01322126888887015</v>
       </c>
       <c r="F47">
-        <v>0.01348985911029236</v>
+        <v>0.01425521933842741</v>
       </c>
       <c r="G47">
-        <v>0.004581947750858913</v>
+        <v>0.009924934538620502</v>
       </c>
       <c r="H47">
-        <v>-0.009149517168181704</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.02590662816411469</v>
+      </c>
+      <c r="I47">
+        <v>-0.03619068513003926</v>
+      </c>
+      <c r="J47">
+        <v>0.05177013296236099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0424019389508136</v>
+        <v>0.03995566408798931</v>
       </c>
       <c r="C48">
-        <v>-0.003667584695304024</v>
+        <v>0.008050762407191787</v>
       </c>
       <c r="D48">
-        <v>-0.03099232470782229</v>
+        <v>0.01157072102273535</v>
       </c>
       <c r="E48">
-        <v>0.0392813274355491</v>
+        <v>0.01256945859111347</v>
       </c>
       <c r="F48">
-        <v>0.01493466562680975</v>
+        <v>-0.003070087251363131</v>
       </c>
       <c r="G48">
-        <v>0.04900335100686941</v>
+        <v>0.01500333240042077</v>
       </c>
       <c r="H48">
-        <v>0.005312246818334252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05558996585341056</v>
+      </c>
+      <c r="I48">
+        <v>-0.05114841714763606</v>
+      </c>
+      <c r="J48">
+        <v>0.0461847365716034</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2381485644635599</v>
+        <v>0.2282296421697963</v>
       </c>
       <c r="C49">
-        <v>-0.06213252596039688</v>
+        <v>0.003274225876032397</v>
       </c>
       <c r="D49">
-        <v>0.08993736240633614</v>
+        <v>-0.06917528445402958</v>
       </c>
       <c r="E49">
-        <v>-0.02649599556529835</v>
+        <v>-0.03201312843829772</v>
       </c>
       <c r="F49">
-        <v>0.06649712603513674</v>
+        <v>-0.02342740916793301</v>
       </c>
       <c r="G49">
-        <v>-0.1325583321492029</v>
+        <v>-0.06844614604761912</v>
       </c>
       <c r="H49">
-        <v>0.05816665489663797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1405080687027808</v>
+      </c>
+      <c r="I49">
+        <v>0.175260620765175</v>
+      </c>
+      <c r="J49">
+        <v>-0.1769706375806664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05601218934427477</v>
+        <v>0.04379952705537106</v>
       </c>
       <c r="C50">
-        <v>-0.01383744405273368</v>
+        <v>0.01942817038017133</v>
       </c>
       <c r="D50">
-        <v>-0.01877001170757235</v>
+        <v>-0.02895635737617678</v>
       </c>
       <c r="E50">
-        <v>0.02502145870307331</v>
+        <v>0.01575393847369153</v>
       </c>
       <c r="F50">
-        <v>-0.03359289518474975</v>
+        <v>-0.006364102025503942</v>
       </c>
       <c r="G50">
-        <v>0.005921109861402664</v>
+        <v>-0.004159769345746872</v>
       </c>
       <c r="H50">
-        <v>-0.05216135643461882</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.04667071873244404</v>
+      </c>
+      <c r="I50">
+        <v>-0.03335953504511675</v>
+      </c>
+      <c r="J50">
+        <v>0.04450379881093963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03514860375716265</v>
+        <v>0.01587985393675119</v>
       </c>
       <c r="C51">
-        <v>-0.008556254281672381</v>
+        <v>-0.00737083878037005</v>
       </c>
       <c r="D51">
-        <v>-0.004676090504612359</v>
+        <v>-0.002739960145381987</v>
       </c>
       <c r="E51">
-        <v>-0.02387107257189848</v>
+        <v>0.01682423488593575</v>
       </c>
       <c r="F51">
-        <v>-0.02548368874004057</v>
+        <v>0.006556937183773015</v>
       </c>
       <c r="G51">
-        <v>-0.01693579707226124</v>
+        <v>-0.02215017625437249</v>
       </c>
       <c r="H51">
-        <v>0.03181728134073156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02071985494137773</v>
+      </c>
+      <c r="I51">
+        <v>0.003098098715913426</v>
+      </c>
+      <c r="J51">
+        <v>-0.01435734785220626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.09793565831081694</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.0688945999348245</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.02858134635764793</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02486872870258029</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02507886347333561</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002559169933473862</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.06721072026075939</v>
+      </c>
+      <c r="I52">
+        <v>0.037353984458614</v>
+      </c>
+      <c r="J52">
+        <v>0.1107748574967629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1632739852368859</v>
+        <v>0.1577332069723086</v>
       </c>
       <c r="C53">
-        <v>0.004299161420907183</v>
+        <v>0.01958512899460442</v>
       </c>
       <c r="D53">
-        <v>0.05301462272596755</v>
+        <v>0.003077210725315748</v>
       </c>
       <c r="E53">
-        <v>0.04990367896103932</v>
+        <v>-0.011947135862576</v>
       </c>
       <c r="F53">
-        <v>-0.1989876508646419</v>
+        <v>0.01118117702269377</v>
       </c>
       <c r="G53">
-        <v>-0.0377086983819517</v>
+        <v>-0.0310440399652928</v>
       </c>
       <c r="H53">
-        <v>-0.07285636413686117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.03060732217559303</v>
+      </c>
+      <c r="I53">
+        <v>0.1136605635418042</v>
+      </c>
+      <c r="J53">
+        <v>0.166749308034722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05508475490876969</v>
+        <v>0.05059801604718425</v>
       </c>
       <c r="C54">
-        <v>-0.005893661234502251</v>
+        <v>0.01181042772931572</v>
       </c>
       <c r="D54">
-        <v>-0.04284207691934742</v>
+        <v>-0.01306873390041655</v>
       </c>
       <c r="E54">
-        <v>-0.003654098867373699</v>
+        <v>0.01672977823564651</v>
       </c>
       <c r="F54">
-        <v>0.0007246813281579073</v>
+        <v>0.01935036808661612</v>
       </c>
       <c r="G54">
-        <v>0.05751218469141053</v>
+        <v>0.009815622518756914</v>
       </c>
       <c r="H54">
-        <v>-0.07672398783677362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.07008456985752158</v>
+      </c>
+      <c r="I54">
+        <v>-0.1309595133944317</v>
+      </c>
+      <c r="J54">
+        <v>0.03351129071526068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09742044830103025</v>
+        <v>0.08962781764239111</v>
       </c>
       <c r="C55">
-        <v>-0.008640532787113218</v>
+        <v>0.02697016740116304</v>
       </c>
       <c r="D55">
-        <v>0.000896250994747363</v>
+        <v>0.01706675644648585</v>
       </c>
       <c r="E55">
-        <v>0.03180933209939613</v>
+        <v>0.03624907599589345</v>
       </c>
       <c r="F55">
-        <v>-0.1329787272579066</v>
+        <v>-0.02138598821833016</v>
       </c>
       <c r="G55">
-        <v>0.009404265544896068</v>
+        <v>-0.008163825502044241</v>
       </c>
       <c r="H55">
-        <v>-0.07430578018793615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.004261799375435184</v>
+      </c>
+      <c r="I55">
+        <v>0.02052322453064412</v>
+      </c>
+      <c r="J55">
+        <v>0.1208511039199706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1652692857993459</v>
+        <v>0.1620697782611383</v>
       </c>
       <c r="C56">
-        <v>0.002777742187133137</v>
+        <v>0.03382350731090813</v>
       </c>
       <c r="D56">
-        <v>0.06128142638520967</v>
+        <v>-0.01349150341761118</v>
       </c>
       <c r="E56">
-        <v>0.0822279126487119</v>
+        <v>0.01853112287781868</v>
       </c>
       <c r="F56">
-        <v>-0.1781128372077843</v>
+        <v>-0.02339231767748393</v>
       </c>
       <c r="G56">
-        <v>-0.01910084166493337</v>
+        <v>-0.02801991118090991</v>
       </c>
       <c r="H56">
-        <v>-0.05944615188975033</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.02755579417002542</v>
+      </c>
+      <c r="I56">
+        <v>0.05909366750004268</v>
+      </c>
+      <c r="J56">
+        <v>0.1328931756360296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01810370440110204</v>
+        <v>0.03465869153225759</v>
       </c>
       <c r="C58">
-        <v>-0.08091060451066044</v>
+        <v>0.01539068074102144</v>
       </c>
       <c r="D58">
-        <v>-0.2110384139181257</v>
+        <v>-0.01838001195040108</v>
       </c>
       <c r="E58">
-        <v>0.03857943975323879</v>
+        <v>0.01368480402216178</v>
       </c>
       <c r="F58">
-        <v>0.4239933981532296</v>
+        <v>0.08057204574840908</v>
       </c>
       <c r="G58">
-        <v>0.1335403129295274</v>
+        <v>0.005025315937194341</v>
       </c>
       <c r="H58">
-        <v>0.2705323033091225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.09949798960942702</v>
+      </c>
+      <c r="I58">
+        <v>0.01656992220158061</v>
+      </c>
+      <c r="J58">
+        <v>0.02647756375057066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1484445366713085</v>
+        <v>0.1550401317451426</v>
       </c>
       <c r="C59">
-        <v>0.3841189912416469</v>
+        <v>-0.3023941559646541</v>
       </c>
       <c r="D59">
-        <v>0.04098170136576956</v>
+        <v>0.08156679139558397</v>
       </c>
       <c r="E59">
-        <v>-0.05670455141919768</v>
+        <v>0.02628670044645524</v>
       </c>
       <c r="F59">
-        <v>-0.06081525170929018</v>
+        <v>-0.04842171676384363</v>
       </c>
       <c r="G59">
-        <v>0.01216656499437325</v>
+        <v>-0.03428117356901683</v>
       </c>
       <c r="H59">
-        <v>0.02959288236889205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.06841734613189783</v>
+      </c>
+      <c r="I59">
+        <v>-0.04456788667516955</v>
+      </c>
+      <c r="J59">
+        <v>0.008544378687498902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2765490070837683</v>
+        <v>0.2806328799722765</v>
       </c>
       <c r="C60">
-        <v>-0.05092380534324642</v>
+        <v>0.0970123678336608</v>
       </c>
       <c r="D60">
-        <v>0.05979725548799152</v>
+        <v>-0.01935778772633911</v>
       </c>
       <c r="E60">
-        <v>-0.05074598424416348</v>
+        <v>-0.09485414583730239</v>
       </c>
       <c r="F60">
-        <v>0.06202668580233147</v>
+        <v>3.767372143037763e-06</v>
       </c>
       <c r="G60">
-        <v>-0.1428245734669074</v>
+        <v>-0.1263531249647188</v>
       </c>
       <c r="H60">
-        <v>0.03199980570756063</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1548728118980621</v>
+      </c>
+      <c r="I60">
+        <v>0.1969194509941987</v>
+      </c>
+      <c r="J60">
+        <v>-0.3679186361532052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09458276124044683</v>
+        <v>0.1112950383279026</v>
       </c>
       <c r="C61">
-        <v>-0.02097675560858462</v>
+        <v>0.05806259405212649</v>
       </c>
       <c r="D61">
-        <v>-0.02817121304643607</v>
+        <v>0.004842487851030447</v>
       </c>
       <c r="E61">
-        <v>-0.009550880806530914</v>
+        <v>0.04244918463577212</v>
       </c>
       <c r="F61">
-        <v>-0.03476648908318875</v>
+        <v>-0.07704447209290108</v>
       </c>
       <c r="G61">
-        <v>0.06090684604275528</v>
+        <v>-0.02719521348596951</v>
       </c>
       <c r="H61">
-        <v>0.04427915757019691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.133100800207535</v>
+      </c>
+      <c r="I61">
+        <v>-0.1245540277615082</v>
+      </c>
+      <c r="J61">
+        <v>0.0585572177140496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1451225922602477</v>
+        <v>0.1596756997020744</v>
       </c>
       <c r="C62">
-        <v>-0.02748796950786777</v>
+        <v>0.03275055070862982</v>
       </c>
       <c r="D62">
-        <v>0.1211348618198456</v>
+        <v>-0.00555498473502196</v>
       </c>
       <c r="E62">
-        <v>0.07458968650506105</v>
+        <v>0.001780115342962024</v>
       </c>
       <c r="F62">
-        <v>-0.1625738044464835</v>
+        <v>-0.02145696052387388</v>
       </c>
       <c r="G62">
-        <v>-0.00917361855808555</v>
+        <v>-0.003144775869760062</v>
       </c>
       <c r="H62">
-        <v>-0.0857813978956676</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.0004222342926904688</v>
+      </c>
+      <c r="I62">
+        <v>0.09278701950052101</v>
+      </c>
+      <c r="J62">
+        <v>0.1318915687218788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04392076102631737</v>
+        <v>0.04293010913657058</v>
       </c>
       <c r="C63">
-        <v>-0.01900091805324863</v>
+        <v>0.007433005225340039</v>
       </c>
       <c r="D63">
-        <v>-0.003071498786411433</v>
+        <v>0.005652609830274501</v>
       </c>
       <c r="E63">
-        <v>0.01706832938783499</v>
+        <v>0.0246033926698209</v>
       </c>
       <c r="F63">
-        <v>0.007450157050642167</v>
+        <v>-0.00933624697411922</v>
       </c>
       <c r="G63">
-        <v>0.04165415702599796</v>
+        <v>0.03915619285730262</v>
       </c>
       <c r="H63">
-        <v>-0.1036776463492274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.04524965107381684</v>
+      </c>
+      <c r="I63">
+        <v>-0.06102700666806481</v>
+      </c>
+      <c r="J63">
+        <v>0.04139135817679675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1102700665559362</v>
+        <v>0.09796383436184493</v>
       </c>
       <c r="C64">
-        <v>-0.009240444078886311</v>
+        <v>0.01186698783572338</v>
       </c>
       <c r="D64">
-        <v>-0.04530867164057854</v>
+        <v>-0.01432626158616909</v>
       </c>
       <c r="E64">
-        <v>-0.02886941306936056</v>
+        <v>0.0003071870472695201</v>
       </c>
       <c r="F64">
-        <v>-0.0005731676882936366</v>
+        <v>-0.0008763930688900546</v>
       </c>
       <c r="G64">
-        <v>0.04899893416986594</v>
+        <v>-0.05303490669741452</v>
       </c>
       <c r="H64">
-        <v>-0.01949122792127631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.04761184411606693</v>
+      </c>
+      <c r="I64">
+        <v>-0.04307426756629963</v>
+      </c>
+      <c r="J64">
+        <v>-0.06179162780898569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1120113692640421</v>
+        <v>0.116704383270091</v>
       </c>
       <c r="C65">
-        <v>-0.03168972271470132</v>
+        <v>0.00913397891532884</v>
       </c>
       <c r="D65">
-        <v>-0.02306253136975744</v>
+        <v>0.01698162014841202</v>
       </c>
       <c r="E65">
-        <v>-0.01113263482149487</v>
+        <v>-0.0202923363547875</v>
       </c>
       <c r="F65">
-        <v>0.4372085709010183</v>
+        <v>0.005152181559469651</v>
       </c>
       <c r="G65">
-        <v>-0.102516557090961</v>
+        <v>0.07212302066431178</v>
       </c>
       <c r="H65">
-        <v>-0.5937798500217587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.01602402012518102</v>
+      </c>
+      <c r="I65">
+        <v>0.001347615470916339</v>
+      </c>
+      <c r="J65">
+        <v>-0.2394553172958565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1559603938552513</v>
+        <v>0.1663412082926332</v>
       </c>
       <c r="C66">
-        <v>-0.04616348387173682</v>
+        <v>0.09897608192555704</v>
       </c>
       <c r="D66">
-        <v>-0.03258924965595583</v>
+        <v>-0.03757396715838009</v>
       </c>
       <c r="E66">
-        <v>-0.0517476853927502</v>
+        <v>0.05754872644194036</v>
       </c>
       <c r="F66">
-        <v>-0.09094798470291393</v>
+        <v>-0.1446896534046385</v>
       </c>
       <c r="G66">
-        <v>0.2632172731927827</v>
+        <v>-0.03554676740261974</v>
       </c>
       <c r="H66">
-        <v>0.1567412953377707</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1402010826128064</v>
+      </c>
+      <c r="I66">
+        <v>-0.04723889377698976</v>
+      </c>
+      <c r="J66">
+        <v>0.01008879342010558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.109196289353928</v>
+        <v>0.08183716713729303</v>
       </c>
       <c r="C67">
-        <v>-0.03431766887529986</v>
+        <v>0.04622722513589075</v>
       </c>
       <c r="D67">
-        <v>-0.003836544617459318</v>
+        <v>0.009367163631718797</v>
       </c>
       <c r="E67">
-        <v>-0.0369032298201321</v>
+        <v>0.07485639081645189</v>
       </c>
       <c r="F67">
-        <v>-0.05766160944759055</v>
+        <v>0.01471294660556323</v>
       </c>
       <c r="G67">
-        <v>0.03588642986624995</v>
+        <v>-0.03188048958125998</v>
       </c>
       <c r="H67">
-        <v>0.01455652162105653</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.09604957095807069</v>
+      </c>
+      <c r="I67">
+        <v>0.02097544970091145</v>
+      </c>
+      <c r="J67">
+        <v>-0.01153519605553847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.03669255615194751</v>
+        <v>0.06955573777627862</v>
       </c>
       <c r="C68">
-        <v>0.2921794516662217</v>
+        <v>-0.2749118772984862</v>
       </c>
       <c r="D68">
-        <v>0.007238461896407724</v>
+        <v>0.08745463056762669</v>
       </c>
       <c r="E68">
-        <v>0.0204680816469283</v>
+        <v>0.01217289117451716</v>
       </c>
       <c r="F68">
-        <v>0.02439250310163019</v>
+        <v>-0.03244270968631522</v>
       </c>
       <c r="G68">
-        <v>-0.01373408737645889</v>
+        <v>0.01161330625014649</v>
       </c>
       <c r="H68">
-        <v>-0.02285605951890004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04242129034031326</v>
+      </c>
+      <c r="I68">
+        <v>-0.04029758486472897</v>
+      </c>
+      <c r="J68">
+        <v>-0.01677182801305719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.05023406401084355</v>
+        <v>0.03941467166109441</v>
       </c>
       <c r="C69">
-        <v>-0.01113451408183067</v>
+        <v>0.007123547450694734</v>
       </c>
       <c r="D69">
-        <v>0.01030071237483322</v>
+        <v>0.01064691355925512</v>
       </c>
       <c r="E69">
-        <v>0.03439414115774</v>
+        <v>0.02606502695220508</v>
       </c>
       <c r="F69">
-        <v>0.008865096166369232</v>
+        <v>0.002870137620756398</v>
       </c>
       <c r="G69">
-        <v>0.02379328444919301</v>
+        <v>-0.003958060998939392</v>
       </c>
       <c r="H69">
-        <v>-0.007955877264259049</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.0106651714726623</v>
+      </c>
+      <c r="I69">
+        <v>0.002062321373787944</v>
+      </c>
+      <c r="J69">
+        <v>0.02792541228271621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.08216070482479425</v>
+        <v>0.0401641699824447</v>
       </c>
       <c r="C70">
-        <v>-0.01018955795061534</v>
+        <v>-0.00225054628826245</v>
       </c>
       <c r="D70">
-        <v>0.0007622181043493</v>
+        <v>0.02036109288429533</v>
       </c>
       <c r="E70">
-        <v>-0.06158885597934357</v>
+        <v>0.02910521644067466</v>
       </c>
       <c r="F70">
-        <v>-0.01859627468333036</v>
+        <v>-0.02209410173909349</v>
       </c>
       <c r="G70">
-        <v>-0.04224207063155929</v>
+        <v>-0.05676927639877308</v>
       </c>
       <c r="H70">
-        <v>0.03942416164066848</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02816563562514708</v>
+      </c>
+      <c r="I70">
+        <v>-0.01263539475140142</v>
+      </c>
+      <c r="J70">
+        <v>0.05389328262660779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.04709372409783524</v>
+        <v>0.08230905660611075</v>
       </c>
       <c r="C71">
-        <v>0.3019564588451966</v>
+        <v>-0.2900575843856861</v>
       </c>
       <c r="D71">
-        <v>0.0004105585918472946</v>
+        <v>0.09210370267180441</v>
       </c>
       <c r="E71">
-        <v>9.879949726985033e-06</v>
+        <v>0.01401090358333738</v>
       </c>
       <c r="F71">
-        <v>0.01186599349629277</v>
+        <v>-0.02435937146593366</v>
       </c>
       <c r="G71">
-        <v>0.0121231235576545</v>
+        <v>-0.01398067768680989</v>
       </c>
       <c r="H71">
-        <v>-0.0007068999667560962</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.04413413050502944</v>
+      </c>
+      <c r="I71">
+        <v>-0.0359228476082858</v>
+      </c>
+      <c r="J71">
+        <v>-0.03396515663321133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1310509541898937</v>
+        <v>0.1375577383640491</v>
       </c>
       <c r="C72">
-        <v>0.0186691819704111</v>
+        <v>-0.0182182733771172</v>
       </c>
       <c r="D72">
-        <v>0.08936262170211573</v>
+        <v>-0.01599633079310326</v>
       </c>
       <c r="E72">
-        <v>0.1112775616802751</v>
+        <v>0.01720198322306581</v>
       </c>
       <c r="F72">
-        <v>0.02928938979529791</v>
+        <v>-0.01594095952709563</v>
       </c>
       <c r="G72">
-        <v>0.08707819584838945</v>
+        <v>0.04486269856608286</v>
       </c>
       <c r="H72">
-        <v>-0.1163915933635817</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.0127881261616978</v>
+      </c>
+      <c r="I72">
+        <v>0.0009388931332727943</v>
+      </c>
+      <c r="J72">
+        <v>0.0146145925662482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2815384591340767</v>
+        <v>0.246026138226197</v>
       </c>
       <c r="C73">
-        <v>-0.1416022230870639</v>
+        <v>0.05475580564167479</v>
       </c>
       <c r="D73">
-        <v>0.1536226648625451</v>
+        <v>-0.04901558595735842</v>
       </c>
       <c r="E73">
-        <v>-0.1232814322878031</v>
+        <v>0.0246364448213979</v>
       </c>
       <c r="F73">
-        <v>0.2612371340900143</v>
+        <v>-0.07619397956264368</v>
       </c>
       <c r="G73">
-        <v>-0.2551041709189336</v>
+        <v>-0.1907490076124978</v>
       </c>
       <c r="H73">
-        <v>0.2409922767232598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2440013627954987</v>
+      </c>
+      <c r="I73">
+        <v>0.3026946706628461</v>
+      </c>
+      <c r="J73">
+        <v>-0.2191012596588029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1000818418550473</v>
+        <v>0.1083682402642436</v>
       </c>
       <c r="C74">
-        <v>-0.03081970376547907</v>
+        <v>0.02408540742494598</v>
       </c>
       <c r="D74">
-        <v>0.01855055494315286</v>
+        <v>-0.02818573037897874</v>
       </c>
       <c r="E74">
-        <v>0.01809454943511049</v>
+        <v>0.02485440699455251</v>
       </c>
       <c r="F74">
-        <v>-0.101901729077318</v>
+        <v>-0.008928195746451909</v>
       </c>
       <c r="G74">
-        <v>-0.02995866489192012</v>
+        <v>-0.009591707110774953</v>
       </c>
       <c r="H74">
-        <v>-0.03717923940137213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.04876445017545059</v>
+      </c>
+      <c r="I74">
+        <v>0.08043280669465221</v>
+      </c>
+      <c r="J74">
+        <v>0.100930611857357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.0935972645683643</v>
+        <v>0.1184971588689433</v>
       </c>
       <c r="C75">
-        <v>-0.01924238020818096</v>
+        <v>0.03702636917193574</v>
       </c>
       <c r="D75">
-        <v>0.04475498841140742</v>
+        <v>-0.02177103400166886</v>
       </c>
       <c r="E75">
-        <v>0.0727491680040237</v>
+        <v>0.01898448918071411</v>
       </c>
       <c r="F75">
-        <v>-0.08563095959936301</v>
+        <v>-0.003613515063802837</v>
       </c>
       <c r="G75">
-        <v>-0.05021046160000358</v>
+        <v>0.02155835241223369</v>
       </c>
       <c r="H75">
-        <v>-0.01042712288813622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.005901297718295752</v>
+      </c>
+      <c r="I75">
+        <v>0.03779284863353433</v>
+      </c>
+      <c r="J75">
+        <v>0.1378502753336027</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1413534031924369</v>
+        <v>0.04640918023688852</v>
       </c>
       <c r="C76">
-        <v>-0.02496919005491103</v>
+        <v>0.001762454917450114</v>
       </c>
       <c r="D76">
-        <v>-0.007077676517520618</v>
+        <v>-0.01354728982363892</v>
       </c>
       <c r="E76">
-        <v>0.06427062842296022</v>
+        <v>0.03287902099716059</v>
       </c>
       <c r="F76">
-        <v>-0.2141708055320967</v>
+        <v>0.0109473584335542</v>
       </c>
       <c r="G76">
-        <v>-0.08651040620904502</v>
+        <v>-0.02852483495536759</v>
       </c>
       <c r="H76">
-        <v>-0.04983687752069242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.04283568644997421</v>
+      </c>
+      <c r="I76">
+        <v>0.02832140567066476</v>
+      </c>
+      <c r="J76">
+        <v>0.07976973797148831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07902120456652055</v>
+        <v>0.08224279815670467</v>
       </c>
       <c r="C77">
-        <v>0.01247073244757238</v>
+        <v>0.07842610785428113</v>
       </c>
       <c r="D77">
-        <v>-0.1008507070559581</v>
+        <v>-0.01623448172935755</v>
       </c>
       <c r="E77">
-        <v>-0.1098266957783191</v>
+        <v>-0.009135779494176389</v>
       </c>
       <c r="F77">
-        <v>0.1853304067114556</v>
+        <v>0.004744969776523301</v>
       </c>
       <c r="G77">
-        <v>0.1565879513501907</v>
+        <v>-0.04351216331461614</v>
       </c>
       <c r="H77">
-        <v>0.1443312965674131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.0376859183942265</v>
+      </c>
+      <c r="I77">
+        <v>-0.1968579041620873</v>
+      </c>
+      <c r="J77">
+        <v>-0.3237582584432606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.2279929943491897</v>
+        <v>0.1362995349639968</v>
       </c>
       <c r="C78">
-        <v>-0.04205346933410815</v>
+        <v>0.001807799743926771</v>
       </c>
       <c r="D78">
-        <v>-0.2280006071715782</v>
+        <v>-0.1665418893916549</v>
       </c>
       <c r="E78">
-        <v>-0.0364970509465685</v>
+        <v>0.2147025488266998</v>
       </c>
       <c r="F78">
-        <v>0.04255456424742577</v>
+        <v>0.2571342293872033</v>
       </c>
       <c r="G78">
-        <v>0.1382945419881982</v>
+        <v>0.1501790084262992</v>
       </c>
       <c r="H78">
-        <v>-0.07175892243677026</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.6302118054937634</v>
+      </c>
+      <c r="I78">
+        <v>-0.5489820018734677</v>
+      </c>
+      <c r="J78">
+        <v>0.09520118924810086</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.137471875577741</v>
+        <v>0.1413603683238829</v>
       </c>
       <c r="C79">
-        <v>-0.007174480463429997</v>
+        <v>0.03087245080698037</v>
       </c>
       <c r="D79">
-        <v>0.02267106357043638</v>
+        <v>-0.04696012576944961</v>
       </c>
       <c r="E79">
-        <v>0.04855593304927625</v>
+        <v>0.003384728810613644</v>
       </c>
       <c r="F79">
-        <v>-0.1115317911918554</v>
+        <v>-0.01619403942874817</v>
       </c>
       <c r="G79">
-        <v>0.01171055133899563</v>
+        <v>-0.01501830510941255</v>
       </c>
       <c r="H79">
-        <v>-0.06368227611829565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.03917860185678601</v>
+      </c>
+      <c r="I79">
+        <v>0.06330088046381295</v>
+      </c>
+      <c r="J79">
+        <v>0.09876364763848003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.03527727138495368</v>
+        <v>0.07236011346379241</v>
       </c>
       <c r="C80">
-        <v>-0.005519633589041418</v>
+        <v>0.05592767208849034</v>
       </c>
       <c r="D80">
-        <v>0.02403452345271893</v>
+        <v>0.01183573375438499</v>
       </c>
       <c r="E80">
-        <v>-0.05206334555077081</v>
+        <v>0.02902274006485852</v>
       </c>
       <c r="F80">
-        <v>0.02371090112860978</v>
+        <v>-0.057788847597035</v>
       </c>
       <c r="G80">
-        <v>0.05125058529989112</v>
+        <v>-0.002397564656887557</v>
       </c>
       <c r="H80">
-        <v>-0.1165379553864811</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.03779755269139596</v>
+      </c>
+      <c r="I80">
+        <v>-0.06652710972916563</v>
+      </c>
+      <c r="J80">
+        <v>0.1582497571872871</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.112080488988657</v>
+        <v>0.1403362492176909</v>
       </c>
       <c r="C81">
-        <v>-0.0006438291238469138</v>
+        <v>0.04112393300720828</v>
       </c>
       <c r="D81">
-        <v>0.0133855061663694</v>
+        <v>-0.03500473260561618</v>
       </c>
       <c r="E81">
-        <v>0.03117884215227324</v>
+        <v>0.02797846189753932</v>
       </c>
       <c r="F81">
-        <v>-0.1283320939564298</v>
+        <v>-0.001617594942927838</v>
       </c>
       <c r="G81">
-        <v>-0.03614697818756177</v>
+        <v>-0.007497894284729458</v>
       </c>
       <c r="H81">
-        <v>-0.008477556615556561</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.03550481561335739</v>
+      </c>
+      <c r="I81">
+        <v>0.01697209731555081</v>
+      </c>
+      <c r="J81">
+        <v>0.181032862433038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1143494598126858</v>
+        <v>0.1584202536988077</v>
       </c>
       <c r="C82">
-        <v>-0.0193763047675598</v>
+        <v>0.05547129336909205</v>
       </c>
       <c r="D82">
-        <v>0.01608281541024031</v>
+        <v>-0.000106683212957456</v>
       </c>
       <c r="E82">
-        <v>-0.0354685668416906</v>
+        <v>0.0101178447210778</v>
       </c>
       <c r="F82">
-        <v>-0.2458114768521662</v>
+        <v>-0.03898356399914314</v>
       </c>
       <c r="G82">
-        <v>-0.007500695150786313</v>
+        <v>-0.0489793106793356</v>
       </c>
       <c r="H82">
-        <v>-0.04811821316017744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.03075531504539042</v>
+      </c>
+      <c r="I82">
+        <v>0.1039140428937829</v>
+      </c>
+      <c r="J82">
+        <v>0.2305757712826035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1132858834022191</v>
+        <v>0.0885865626552064</v>
       </c>
       <c r="C83">
-        <v>-0.04414489681631274</v>
+        <v>0.0470721013277999</v>
       </c>
       <c r="D83">
-        <v>-0.0002272724265688266</v>
+        <v>-0.004855957770591288</v>
       </c>
       <c r="E83">
-        <v>-0.09928982099713025</v>
+        <v>-0.02870083608278736</v>
       </c>
       <c r="F83">
-        <v>0.0240162712638172</v>
+        <v>0.02966155301829062</v>
       </c>
       <c r="G83">
-        <v>0.0624989119786096</v>
+        <v>0.01429764107246172</v>
       </c>
       <c r="H83">
-        <v>0.09710550308950057</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.03486206374472894</v>
+      </c>
+      <c r="I83">
+        <v>-0.09245074462757941</v>
+      </c>
+      <c r="J83">
+        <v>0.01207156193544859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04973805804227719</v>
+        <v>0.06400997981261475</v>
       </c>
       <c r="C84">
-        <v>-0.02354706670410632</v>
+        <v>0.01706880487364457</v>
       </c>
       <c r="D84">
-        <v>-0.01696718094287162</v>
+        <v>0.009342691157656974</v>
       </c>
       <c r="E84">
-        <v>0.05359186827387954</v>
+        <v>-0.02658564167926672</v>
       </c>
       <c r="F84">
-        <v>-0.06051998995985012</v>
+        <v>-0.03406917220383601</v>
       </c>
       <c r="G84">
-        <v>-0.04489326254412115</v>
+        <v>-0.04224806250682166</v>
       </c>
       <c r="H84">
-        <v>-0.008962106325937115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.01334356179991318</v>
+      </c>
+      <c r="I84">
+        <v>-0.006007786739509536</v>
+      </c>
+      <c r="J84">
+        <v>-0.02745331957202608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1075897409303572</v>
+        <v>0.1252077167641596</v>
       </c>
       <c r="C85">
-        <v>-0.01377013444366494</v>
+        <v>0.025164568370655</v>
       </c>
       <c r="D85">
-        <v>0.03814282095186607</v>
+        <v>-0.01907987218032194</v>
       </c>
       <c r="E85">
-        <v>0.07969941834689431</v>
+        <v>0.01045330344857457</v>
       </c>
       <c r="F85">
-        <v>-0.1368545945140823</v>
+        <v>-0.006804460986430597</v>
       </c>
       <c r="G85">
-        <v>0.01612898690473354</v>
+        <v>-0.01497507288673153</v>
       </c>
       <c r="H85">
-        <v>-0.1037741363320572</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.02405221041923994</v>
+      </c>
+      <c r="I85">
+        <v>0.03800656779676492</v>
+      </c>
+      <c r="J85">
+        <v>0.1212909883565868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06919216134542922</v>
+        <v>0.1170013055606807</v>
       </c>
       <c r="C86">
-        <v>-0.01825693122835503</v>
+        <v>-0.06216253413418344</v>
       </c>
       <c r="D86">
-        <v>-0.08688862341700083</v>
+        <v>-0.3265439233494327</v>
       </c>
       <c r="E86">
-        <v>-0.10728769355327</v>
+        <v>-0.868308889193269</v>
       </c>
       <c r="F86">
-        <v>-0.0340372665903307</v>
+        <v>0.1772072176714842</v>
       </c>
       <c r="G86">
-        <v>0.02218234589976577</v>
+        <v>0.09437817305860496</v>
       </c>
       <c r="H86">
-        <v>-0.281071781702856</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.07313122283594757</v>
+      </c>
+      <c r="I86">
+        <v>-0.1377502889034212</v>
+      </c>
+      <c r="J86">
+        <v>0.05592963469507342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1080895655625579</v>
+        <v>0.1116683718512936</v>
       </c>
       <c r="C87">
-        <v>-0.05354461612997777</v>
+        <v>0.09727608258762833</v>
       </c>
       <c r="D87">
-        <v>-0.06492695231765427</v>
+        <v>0.05392008641076843</v>
       </c>
       <c r="E87">
-        <v>-0.01765746514177681</v>
+        <v>0.001158745312118711</v>
       </c>
       <c r="F87">
-        <v>0.02328239348925255</v>
+        <v>0.0347691489573073</v>
       </c>
       <c r="G87">
-        <v>0.1205360892100248</v>
+        <v>-0.02912396353078792</v>
       </c>
       <c r="H87">
-        <v>-0.009724744317238678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.01000902227479165</v>
+      </c>
+      <c r="I87">
+        <v>-0.2272318329130741</v>
+      </c>
+      <c r="J87">
+        <v>-0.2352957263313272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0709127469443121</v>
+        <v>0.05520161001255971</v>
       </c>
       <c r="C88">
-        <v>-0.04004618521565555</v>
+        <v>0.02687781335021105</v>
       </c>
       <c r="D88">
-        <v>-0.02654906520771338</v>
+        <v>-0.02817472535294391</v>
       </c>
       <c r="E88">
-        <v>-0.02300370592939939</v>
+        <v>0.03244910880256859</v>
       </c>
       <c r="F88">
-        <v>-0.02984644201524442</v>
+        <v>-0.05197050362062806</v>
       </c>
       <c r="G88">
-        <v>0.04830849516889063</v>
+        <v>-0.01754093054215106</v>
       </c>
       <c r="H88">
-        <v>0.00529125662584352</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02804836223435821</v>
+      </c>
+      <c r="I88">
+        <v>-0.03680973977533218</v>
+      </c>
+      <c r="J88">
+        <v>0.05683306677023495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09108275210950685</v>
+        <v>0.1302567993750717</v>
       </c>
       <c r="C89">
-        <v>0.388679333742921</v>
+        <v>-0.3655857035422873</v>
       </c>
       <c r="D89">
-        <v>-0.03430180385206229</v>
+        <v>0.1041891719868439</v>
       </c>
       <c r="E89">
-        <v>-0.05037479694713133</v>
+        <v>0.006103345243473369</v>
       </c>
       <c r="F89">
-        <v>0.02076345057285989</v>
+        <v>0.04255144441603825</v>
       </c>
       <c r="G89">
-        <v>-0.003064499208451258</v>
+        <v>-0.04754373562886106</v>
       </c>
       <c r="H89">
-        <v>0.0242100472889925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.006180384231801515</v>
+      </c>
+      <c r="I89">
+        <v>-0.02004041796204619</v>
+      </c>
+      <c r="J89">
+        <v>-0.00794802830002184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07123674634990583</v>
+        <v>0.09861676116943002</v>
       </c>
       <c r="C90">
-        <v>0.2953348746581254</v>
+        <v>-0.2864698860767528</v>
       </c>
       <c r="D90">
-        <v>-0.04409537395539829</v>
+        <v>0.08306932275710739</v>
       </c>
       <c r="E90">
-        <v>-0.01567777147480547</v>
+        <v>0.003027810716749353</v>
       </c>
       <c r="F90">
-        <v>0.02761216867358232</v>
+        <v>-0.02678981671385702</v>
       </c>
       <c r="G90">
-        <v>0.03522908187633614</v>
+        <v>-0.02514556670353936</v>
       </c>
       <c r="H90">
-        <v>0.0284783655679554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06344382460368565</v>
+      </c>
+      <c r="I90">
+        <v>-0.03802223853602105</v>
+      </c>
+      <c r="J90">
+        <v>-0.0414962642734326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08202139898304783</v>
+        <v>0.08759861957233651</v>
       </c>
       <c r="C91">
-        <v>-0.02261910800967145</v>
+        <v>0.02124892943642587</v>
       </c>
       <c r="D91">
-        <v>0.01791953712957751</v>
+        <v>-0.02193881925386988</v>
       </c>
       <c r="E91">
-        <v>0.01601616877038579</v>
+        <v>-0.006073454970875112</v>
       </c>
       <c r="F91">
-        <v>-0.06393489054446215</v>
+        <v>0.0005913620387841701</v>
       </c>
       <c r="G91">
-        <v>-0.06469797509833504</v>
+        <v>-0.02193014341594622</v>
       </c>
       <c r="H91">
-        <v>0.01879240101534461</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.003493903834243096</v>
+      </c>
+      <c r="I91">
+        <v>0.03714262547361317</v>
+      </c>
+      <c r="J91">
+        <v>0.08490713086588343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06532030302778376</v>
+        <v>0.110359033567295</v>
       </c>
       <c r="C92">
-        <v>0.3552290663943183</v>
+        <v>-0.3244213581598478</v>
       </c>
       <c r="D92">
-        <v>-0.03398046075823611</v>
+        <v>0.115437498949688</v>
       </c>
       <c r="E92">
-        <v>-0.0171901110041046</v>
+        <v>-0.0009254360590282279</v>
       </c>
       <c r="F92">
-        <v>0.06690994455755604</v>
+        <v>0.0163915641744393</v>
       </c>
       <c r="G92">
-        <v>-0.009008572919516905</v>
+        <v>-0.001332292208068246</v>
       </c>
       <c r="H92">
-        <v>0.04234274898861827</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.06007060820006624</v>
+      </c>
+      <c r="I92">
+        <v>-0.04986601662145215</v>
+      </c>
+      <c r="J92">
+        <v>0.02042314277090428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08009516036705612</v>
+        <v>0.0997956176108296</v>
       </c>
       <c r="C93">
-        <v>0.3043958506437429</v>
+        <v>-0.314989454400302</v>
       </c>
       <c r="D93">
-        <v>-0.01461509155741315</v>
+        <v>0.08913554376003643</v>
       </c>
       <c r="E93">
-        <v>-0.00162556722999608</v>
+        <v>-0.01154332267872864</v>
       </c>
       <c r="F93">
-        <v>0.03132645080474707</v>
+        <v>-0.04544718941228435</v>
       </c>
       <c r="G93">
-        <v>-0.02933883554360813</v>
+        <v>-0.03199178001343885</v>
       </c>
       <c r="H93">
-        <v>-0.01381073583313935</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03823964957893244</v>
+      </c>
+      <c r="I93">
+        <v>-0.03332914829911338</v>
+      </c>
+      <c r="J93">
+        <v>-0.01493303626971187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09363232701582933</v>
+        <v>0.1369560959851662</v>
       </c>
       <c r="C94">
-        <v>-0.04539575846562716</v>
+        <v>0.03931717285772639</v>
       </c>
       <c r="D94">
-        <v>0.01281475856965826</v>
+        <v>-0.0235266699183887</v>
       </c>
       <c r="E94">
-        <v>0.04726212381383196</v>
+        <v>0.05399709669863566</v>
       </c>
       <c r="F94">
-        <v>-0.1136711197272595</v>
+        <v>0.01089559248224349</v>
       </c>
       <c r="G94">
-        <v>-0.0574993653812126</v>
+        <v>-0.00824277301830916</v>
       </c>
       <c r="H94">
-        <v>-0.04179367746138221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.001791539428480674</v>
+      </c>
+      <c r="I94">
+        <v>0.06487713511377829</v>
+      </c>
+      <c r="J94">
+        <v>0.1236574257148258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1292466971397076</v>
+        <v>0.1205361236750986</v>
       </c>
       <c r="C95">
-        <v>-0.07388134390412791</v>
+        <v>0.04725760419402322</v>
       </c>
       <c r="D95">
-        <v>-0.09293712045864901</v>
+        <v>-0.03276266940197562</v>
       </c>
       <c r="E95">
-        <v>-0.06817416739007705</v>
+        <v>0.03198243421579705</v>
       </c>
       <c r="F95">
-        <v>0.08746149007664357</v>
+        <v>0.0289864985264425</v>
       </c>
       <c r="G95">
-        <v>0.1099138044422671</v>
+        <v>-0.03715134996138692</v>
       </c>
       <c r="H95">
-        <v>-0.01088801374595785</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.06053384367490629</v>
+      </c>
+      <c r="I95">
+        <v>-0.1107568599453535</v>
+      </c>
+      <c r="J95">
+        <v>-0.03849600364332686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01192102061132873</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0008770443034779889</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0008537812389378776</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.003830791449532192</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.006032183539418891</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004860977691465251</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.00234478674313178</v>
+      </c>
+      <c r="I96">
+        <v>-0.02622351765545771</v>
+      </c>
+      <c r="J96">
+        <v>-0.02149638773305743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1469217118124169</v>
+        <v>0.1676305812788289</v>
       </c>
       <c r="C97">
-        <v>0.03865949270225677</v>
+        <v>-0.02241604553943853</v>
       </c>
       <c r="D97">
-        <v>0.2673198457196829</v>
+        <v>-0.03427643893189163</v>
       </c>
       <c r="E97">
-        <v>0.8229942510589755</v>
+        <v>0.1110519052635112</v>
       </c>
       <c r="F97">
-        <v>0.2006888917956874</v>
+        <v>-0.008940602798614302</v>
       </c>
       <c r="G97">
-        <v>0.1611444072523074</v>
+        <v>0.9126403725006318</v>
       </c>
       <c r="H97">
-        <v>0.05975821028216215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.08260018783728656</v>
+      </c>
+      <c r="I97">
+        <v>0.2116988465284948</v>
+      </c>
+      <c r="J97">
+        <v>-0.09805028612410396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3310926324784673</v>
+        <v>0.2752427127417411</v>
       </c>
       <c r="C98">
-        <v>-0.0610161694387162</v>
+        <v>0.03134418149422655</v>
       </c>
       <c r="D98">
-        <v>0.2169986694525476</v>
+        <v>0.02618483436111049</v>
       </c>
       <c r="E98">
-        <v>-0.165701988311783</v>
+        <v>-0.09682413278133555</v>
       </c>
       <c r="F98">
-        <v>0.07957699456091848</v>
+        <v>0.07076103202156171</v>
       </c>
       <c r="G98">
-        <v>-0.3436994861301658</v>
+        <v>-0.02826565088640335</v>
       </c>
       <c r="H98">
-        <v>0.2698086904523755</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.2924397262804475</v>
+      </c>
+      <c r="I98">
+        <v>0.2137505130701509</v>
+      </c>
+      <c r="J98">
+        <v>0.2011112246031149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.08785363697432866</v>
+        <v>0.05993319256272803</v>
       </c>
       <c r="C99">
-        <v>-0.01852179503026048</v>
+        <v>-0.001878913969020246</v>
       </c>
       <c r="D99">
-        <v>0.01541693464604371</v>
+        <v>-0.01768760856174371</v>
       </c>
       <c r="E99">
-        <v>-0.006247758530253626</v>
+        <v>0.04968951470998197</v>
       </c>
       <c r="F99">
-        <v>-0.01964057920601149</v>
+        <v>0.007789744218504503</v>
       </c>
       <c r="G99">
-        <v>0.02106200894976888</v>
+        <v>-0.01502890593707131</v>
       </c>
       <c r="H99">
-        <v>0.05744936395744143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01943990705586088</v>
+      </c>
+      <c r="I99">
+        <v>0.01535059205928527</v>
+      </c>
+      <c r="J99">
+        <v>0.03151694390088489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0878351187354976</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2716137964265076</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8672293282116308</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2620648408858364</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1141400609063099</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.09016940496554166</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.0855273587633584</v>
+      </c>
+      <c r="I100">
+        <v>-0.09947399589448293</v>
+      </c>
+      <c r="J100">
+        <v>0.05781248749706854</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.06029337912921803</v>
+        <v>0.03580196718549294</v>
       </c>
       <c r="C101">
-        <v>0.001132557766230859</v>
+        <v>0.007783126170336175</v>
       </c>
       <c r="D101">
-        <v>-0.05796294190413717</v>
+        <v>0.005180106479734548</v>
       </c>
       <c r="E101">
-        <v>-0.01998269759803868</v>
+        <v>0.01055566394457315</v>
       </c>
       <c r="F101">
-        <v>-0.02812491081424444</v>
+        <v>-0.02071188181494257</v>
       </c>
       <c r="G101">
-        <v>0.03076142686934455</v>
+        <v>-0.02636508269947038</v>
       </c>
       <c r="H101">
-        <v>-0.07465761970736015</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.08057736489778633</v>
+      </c>
+      <c r="I101">
+        <v>-0.06829713585333508</v>
+      </c>
+      <c r="J101">
+        <v>0.06023955896614472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
